--- a/content/species/data/sp_birds_tbl_2.xlsx
+++ b/content/species/data/sp_birds_tbl_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanbiorgza.sharepoint.com/sites/RedListsquad/Shared Documents/General/NBA 2025/Quarto prep/Birds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF619B4-F2F2-4626-ABDD-8215C2C31777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E840EA-54BC-4F6B-A371-FD5F3FE87907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{0AF8503F-4E91-44EA-A21D-4C908F1CDFFA}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Reason for change</t>
   </si>
   <si>
-    <t>[*Forest Buzzard*]\* (https://www.birdlife.org.za/red-list/forest-buzzard/)</t>
-  </si>
-  <si>
     <t>LC to NT</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Agriculture and aquaculture</t>
   </si>
   <si>
-    <t>[*Blue Crane*] (https://www.birdlife.org.za/red-list/blue-crane/)</t>
-  </si>
-  <si>
     <t>NT to VU</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
   </si>
   <si>
     <t>Agriculture and aquaculture, Climate change</t>
-  </si>
-  <si>
-    <t>[*Wattled Crane*] (https://www.birdlife.org.za/red-list/wattled-crane/)</t>
   </si>
   <si>
     <t>CR to EN</t>
@@ -117,54 +108,27 @@
     <t>Population increasing</t>
   </si>
   <si>
-    <t>[*African Darter*] (https://www.birdlife.org.za/red-list/african-darter/)</t>
-  </si>
-  <si>
     <t>Natural system modification, pollution</t>
   </si>
   <si>
-    <t>[*Knob-billed Duck*] (https://www.birdlife.org.za/red-list/knob-billed-duck/)</t>
-  </si>
-  <si>
     <t>Natural system modification</t>
   </si>
   <si>
-    <t>[*Maccoa Duck*] (https://www.birdlife.org.za/red-list/maccoa-duck/)</t>
-  </si>
-  <si>
     <t>Natural system modification, pollution, disease</t>
   </si>
   <si>
-    <t>[*White-backed Duck*] (https://www.birdlife.org.za/red-list/white-backed-duck/)</t>
-  </si>
-  <si>
     <t>Disease, pollution</t>
   </si>
   <si>
-    <t>[*Yellow-billed Duck*] (https://www.birdlife.org.za/red-list/yellow-billed-duck/)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>[*Steppe Eagle*] (https://www.birdlife.org.za/red-list/steppe-eagle/)</t>
-  </si>
-  <si>
     <t>VU to EN</t>
   </si>
   <si>
     <t>Agriculture and aquaculture, persecution</t>
   </si>
   <si>
-    <t>[*Great Egret*] (https://www.birdlife.org.za/red-list/great-egret/)</t>
-  </si>
-  <si>
-    <t>[*Yellow-billed Egret*] (https://www.birdlife.org.za/red-list/yellow-billed-egret/)</t>
-  </si>
-  <si>
-    <t>[*Lanner Falcon*] (https://www.birdlife.org.za/red-list/lanner-falcon/)</t>
-  </si>
-  <si>
     <t>VUto NT</t>
   </si>
   <si>
@@ -174,173 +138,209 @@
     <t>Improved knowledge</t>
   </si>
   <si>
-    <t>[*Red-footed Falcon*] (https://www.birdlife.org.za/red-list/red-footed-falcon/)</t>
-  </si>
-  <si>
-    <t>[*Lesser Flamingo*] (https://www.birdlife.org.za/red-list/lesser-flamingo/)</t>
-  </si>
-  <si>
     <t>Natural system modification, pollution, climate change</t>
   </si>
   <si>
-    <t>[*Great-crested Grebe*] (https://www.birdlife.org.za/red-list/great-crested-grebe/)</t>
-  </si>
-  <si>
-    <t>[*Hamerkop*] (https://www.birdlife.org.za/red-list/hamerkop/)</t>
-  </si>
-  <si>
     <t>Natural system modification, climate change</t>
   </si>
   <si>
-    <t>[*Black-crowned Night Heron*] (https://www.birdlife.org.za/red-list/black-crowned-night-heron/)</t>
-  </si>
-  <si>
-    <t>[*Southern Bald Ibis*]\* (https://www.birdlife.org.za/red-list/southern-bald-ibis/)</t>
-  </si>
-  <si>
     <t>VU to NT</t>
   </si>
   <si>
     <t>Targeted conservation action means population increasing</t>
   </si>
   <si>
-    <t>[*Lesser Kestrel*] (https://www.birdlife.org.za/red-list/lesser-kestrel/)</t>
-  </si>
-  <si>
     <t>Climate change, persecution, agriculture and aquaculture</t>
   </si>
   <si>
-    <t>[*Half-collared Kingfisher*] (https://www.birdlife.org.za/red-list/half-collared-kingfisher/)</t>
-  </si>
-  <si>
     <t>Climate change, natural system modification, pollution</t>
   </si>
   <si>
-    <t>[*Black-winged Kite*] (https://www.birdlife.org.za/red-list/black-winged-kite/)</t>
-  </si>
-  <si>
     <t>Ecosystem modification</t>
   </si>
   <si>
-    <t>[*Red Knot*] (https://www.birdlife.org.za/red-list/red-knot/)</t>
-  </si>
-  <si>
     <t>Climate change, residential and commercial development, pollution</t>
   </si>
   <si>
-    <t>[*Blue Korhaan*]\* (https://www.birdlife.org.za/red-list/blue-korhaan/)</t>
-  </si>
-  <si>
     <t>LC to VU</t>
   </si>
   <si>
     <t>Energy production and mining, agriculture and aquaculture</t>
   </si>
   <si>
-    <t>[*Botha's Lark*]\* (https://www.birdlife.org.za/red-list/bothas-lark/)</t>
-  </si>
-  <si>
     <t>EN to CR</t>
   </si>
   <si>
     <t>Agriculture and aquaculture, climate change, human intrusion and disturbance</t>
   </si>
   <si>
-    <t>[*Melodious Lark*] (https://www.birdlife.org.za/red-list/melodious-lark/)</t>
-  </si>
-  <si>
     <t>Natural system modification, climate change, agriculture and aquaculture</t>
   </si>
   <si>
-    <t>[*Marsh Owl*] (https://www.birdlife.org.za/red-list/marsh-owl/)</t>
-  </si>
-  <si>
     <t>Agriculture and aquaculture, natural system modification, transportation and service corridors</t>
   </si>
   <si>
-    <t>[*Chestnut-banded Plover*] (https://www.birdlife.org.za/red-list/chestnut-banded-plover/)</t>
-  </si>
-  <si>
     <t>Residential and commercial development, natural system modification, pollution</t>
   </si>
   <si>
-    <t>[*Grey Plover*] (https://www.birdlife.org.za/red-list/grey-plover/)</t>
-  </si>
-  <si>
     <t>Climate change</t>
   </si>
   <si>
-    <t>[*Kittlitz's Plover*] (https://www.birdlife.org.za/red-list/kittlitzs-plover/)</t>
-  </si>
-  <si>
-    <t>[*Sanderling*] (https://www.birdlife.org.za/red-list/sanderling/)</t>
-  </si>
-  <si>
     <t>Residential and commercial development, natural system modification, climate change</t>
   </si>
   <si>
-    <t>[*Curlew Sandpiper*] (https://www.birdlife.org.za/red-list/curlew-sandpiper/)</t>
-  </si>
-  <si>
     <t>Climate change, human intrusion and disturbance, residential and commercial development</t>
   </si>
   <si>
-    <t>[*Cape Shoveler*] (https://www.birdlife.org.za/red-list/cape-shoveler/)</t>
-  </si>
-  <si>
     <t>Ecosystem modification, biological resource use, disease</t>
   </si>
   <si>
-    <t>[*Abdim's Stork*] (https://www.birdlife.org.za/red-list/abdims-stork/)</t>
-  </si>
-  <si>
     <t>NT to LC</t>
   </si>
   <si>
-    <t>[*Black Stork*] (https://www.birdlife.org.za/red-list/black-stork/)</t>
-  </si>
-  <si>
     <t>Natural system modification, climate change, transportation and service corridors</t>
   </si>
   <si>
-    <t>[*Red-billed Teal*] (https://www.birdlife.org.za/red-list/red-billed-teal/)</t>
-  </si>
-  <si>
-    <t>[*Orange Ground Thrush*] (https://www.birdlife.org.za/red-list/orange-ground-thrush/)</t>
-  </si>
-  <si>
     <t>Agriculture and aquaculture, natural system modification</t>
   </si>
   <si>
-    <t>[*Ruddy Turnstone*] (https://www.birdlife.org.za/red-list/ruddy-turnstone/)</t>
-  </si>
-  <si>
     <t>Residential and commercial development, climate change, natural system modification</t>
   </si>
   <si>
-    <t>[*Cape Vulture*] (https://www.birdlife.org.za/red-list/cape-vulture/)</t>
-  </si>
-  <si>
     <t>EN to VU</t>
   </si>
   <si>
-    <t>[*Lappet-faced Vulture*] (https://www.birdlife.org.za/red-list/lappet-faced-vulture/)</t>
-  </si>
-  <si>
     <t>Biological resource use, persecution, natural system modification</t>
   </si>
   <si>
-    <t>[*Ground Woodpecker*]\* (https://www.birdlife.org.za/red-list/ground-woodpecker/)</t>
-  </si>
-  <si>
     <t>Agriculture and aquaculture, climate change, natural system modification</t>
+  </si>
+  <si>
+    <t>[Forest buzzard]\* (https://www.birdlife.org.za/red-list/forest-buzzard/)</t>
+  </si>
+  <si>
+    <t>[Blue crane] (https://www.birdlife.org.za/red-list/blue-crane/)</t>
+  </si>
+  <si>
+    <t>[Wattled crane] (https://www.birdlife.org.za/red-list/wattled-crane/)</t>
+  </si>
+  <si>
+    <t>[African darter] (https://www.birdlife.org.za/red-list/african-darter/)</t>
+  </si>
+  <si>
+    <t>[Knob-billed duck] (https://www.birdlife.org.za/red-list/knob-billed-duck/)</t>
+  </si>
+  <si>
+    <t>[Maccoa duck] (https://www.birdlife.org.za/red-list/maccoa-duck/)</t>
+  </si>
+  <si>
+    <t>[White-backed duck] (https://www.birdlife.org.za/red-list/white-backed-duck/)</t>
+  </si>
+  <si>
+    <t>[Yellow-billed duck] (https://www.birdlife.org.za/red-list/yellow-billed-duck/)</t>
+  </si>
+  <si>
+    <t>[Steppe eagle] (https://www.birdlife.org.za/red-list/steppe-eagle/)</t>
+  </si>
+  <si>
+    <t>[Great egret] (https://www.birdlife.org.za/red-list/great-egret/)</t>
+  </si>
+  <si>
+    <t>[Yellow-billed egret] (https://www.birdlife.org.za/red-list/yellow-billed-egret/)</t>
+  </si>
+  <si>
+    <t>[Lanner falcon] (https://www.birdlife.org.za/red-list/lanner-falcon/)</t>
+  </si>
+  <si>
+    <t>[Red-footed falcon] (https://www.birdlife.org.za/red-list/red-footed-falcon/)</t>
+  </si>
+  <si>
+    <t>[Lesser flamingo] (https://www.birdlife.org.za/red-list/lesser-flamingo/)</t>
+  </si>
+  <si>
+    <t>[Great-crested grebe] (https://www.birdlife.org.za/red-list/great-crested-grebe/)</t>
+  </si>
+  <si>
+    <t>[Hamerkop] (https://www.birdlife.org.za/red-list/hamerkop/)</t>
+  </si>
+  <si>
+    <t>[Black-crowned night heron] (https://www.birdlife.org.za/red-list/black-crowned-night-heron/)</t>
+  </si>
+  <si>
+    <t>[Southern bald ibis]\* (https://www.birdlife.org.za/red-list/southern-bald-ibis/)</t>
+  </si>
+  <si>
+    <t>[Lesser kestrel] (https://www.birdlife.org.za/red-list/lesser-kestrel/)</t>
+  </si>
+  <si>
+    <t>[Half-collared kingfisher] (https://www.birdlife.org.za/red-list/half-collared-kingfisher/)</t>
+  </si>
+  <si>
+    <t>[Black-winged kite] (https://www.birdlife.org.za/red-list/black-winged-kite/)</t>
+  </si>
+  <si>
+    <t>[Red knot] (https://www.birdlife.org.za/red-list/red-knot/)</t>
+  </si>
+  <si>
+    <t>[Blue korhaan]\* (https://www.birdlife.org.za/red-list/blue-korhaan/)</t>
+  </si>
+  <si>
+    <t>[Botha's lark]\* (https://www.birdlife.org.za/red-list/bothas-lark/)</t>
+  </si>
+  <si>
+    <t>[Melodious lark] (https://www.birdlife.org.za/red-list/melodious-lark/)</t>
+  </si>
+  <si>
+    <t>[Marsh owl] (https://www.birdlife.org.za/red-list/marsh-owl/)</t>
+  </si>
+  <si>
+    <t>[Chestnut-banded plover] (https://www.birdlife.org.za/red-list/chestnut-banded-plover/)</t>
+  </si>
+  <si>
+    <t>[Grey plover] (https://www.birdlife.org.za/red-list/grey-plover/)</t>
+  </si>
+  <si>
+    <t>[Kittlitz's plover] (https://www.birdlife.org.za/red-list/kittlitzs-plover/)</t>
+  </si>
+  <si>
+    <t>[Sanderling] (https://www.birdlife.org.za/red-list/sanderling/)</t>
+  </si>
+  <si>
+    <t>[Curlew sandpiper] (https://www.birdlife.org.za/red-list/curlew-sandpiper/)</t>
+  </si>
+  <si>
+    <t>[Cape shoveler] (https://www.birdlife.org.za/red-list/cape-shoveler/)</t>
+  </si>
+  <si>
+    <t>[Abdim's stork] (https://www.birdlife.org.za/red-list/abdims-stork/)</t>
+  </si>
+  <si>
+    <t>[Black stork] (https://www.birdlife.org.za/red-list/black-stork/)</t>
+  </si>
+  <si>
+    <t>[Red-billed teal] (https://www.birdlife.org.za/red-list/red-billed-teal/)</t>
+  </si>
+  <si>
+    <t>[Orange ground thrush] (https://www.birdlife.org.za/red-list/orange-ground-thrush/)</t>
+  </si>
+  <si>
+    <t>[Ruddy turnstone] (https://www.birdlife.org.za/red-list/ruddy-turnstone/)</t>
+  </si>
+  <si>
+    <t>[Cape vulture] (https://www.birdlife.org.za/red-list/cape-vulture/)</t>
+  </si>
+  <si>
+    <t>[Lappet-faced vulture] (https://www.birdlife.org.za/red-list/lappet-faced-vulture/)</t>
+  </si>
+  <si>
+    <t>[Ground woodpecker]\* (https://www.birdlife.org.za/red-list/ground-woodpecker/)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,10 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,17 +751,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4C527-C20B-4486-8FC2-BB187BF6DAE8}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="53.578125" customWidth="1"/>
+    <col min="5" max="5" width="20.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="63" customHeight="1">
+    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,770 +778,745 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.75" customHeight="1">
+    <row r="2" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.15">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.9">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.9">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.9">
-      <c r="A6" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="92.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.15">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.9">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="44.1" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="57.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="44.1" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.9">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.15">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="57.6">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="81" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.9">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="92.65" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="101.45" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="86.45">
-      <c r="A39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="57.6">
-      <c r="A40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.9">
-      <c r="A41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="57.6">
-      <c r="A42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.15">
-      <c r="A43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.15">
-      <c r="A44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="72">
-      <c r="A45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.9">
-      <c r="A46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="57.6">
-      <c r="A47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="57.75">
-      <c r="A48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -1551,6 +1526,31 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1566,19 +1566,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de6781d5-cbdf-44cc-b8b1-919d4413b058">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a4ec884e7468e8b6decba7ff9ee350d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02cf9d369237c4b82eaa1e33230624f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1850,14 +1837,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de6781d5-cbdf-44cc-b8b1-919d4413b058">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483C992E-AEBB-4C8F-883C-1976262C7739}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483C992E-AEBB-4C8F-883C-1976262C7739}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B7634AC-58B0-4A31-A9EF-9E9FA4C1777B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D53F3F6-8F28-4464-A5D6-81260EE763DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D53F3F6-8F28-4464-A5D6-81260EE763DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B7634AC-58B0-4A31-A9EF-9E9FA4C1777B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>